--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2844.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2844.xlsx
@@ -354,7 +354,7 @@
         <v>2.360505844382472</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.36267682451028</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2844.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2844.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170096906947873</v>
+        <v>1.197657823562622</v>
       </c>
       <c r="B1">
-        <v>2.360505844382472</v>
+        <v>2.053754329681396</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.331416130065918</v>
       </c>
       <c r="D1">
-        <v>2.36267682451028</v>
+        <v>3.025156021118164</v>
       </c>
       <c r="E1">
-        <v>1.233375362048013</v>
+        <v>1.20698881149292</v>
       </c>
     </row>
   </sheetData>
